--- a/proto_HTML.xlsx
+++ b/proto_HTML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AustinWen\Documents\GitHub\Project-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F295DFC8-22A3-42BA-A3D2-45F6ECA2635F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C204C759-7A29-4C1F-9F97-5C2837075D56}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5BBC919-664C-4CBE-8274-B8DAEE0F8917}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Plot_bubble" sheetId="3" r:id="rId4"/>
     <sheet name="Plot_line" sheetId="4" r:id="rId5"/>
     <sheet name="Conclusion" sheetId="6" r:id="rId6"/>
+    <sheet name="TASK" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +34,47 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Progres-SQL</t>
+  </si>
+  <si>
+    <t>FLASK</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>index.HTML</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>Geo</t>
+  </si>
+  <si>
+    <t>Bubble</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>Bar (if needed)</t>
+  </si>
+  <si>
+    <t>ETL</t>
+  </si>
+  <si>
+    <t>Connectivity</t>
+  </si>
+  <si>
+    <t>Toy DataSet for HTML coding</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,15 +440,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>215900</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>162551</xdr:colOff>
+      <xdr:colOff>207001</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>95535</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -435,7 +477,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="171450" y="142875"/>
+          <a:off x="215900" y="171450"/>
           <a:ext cx="12183101" cy="5534310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -903,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F49904-13F6-443E-95D2-A6C94AD45248}">
-  <dimension ref="A1:A70"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
@@ -1066,4 +1108,77 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994C7D30-5F53-420D-8BF8-73049351FE71}">
+  <dimension ref="B2:D10"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/proto_HTML.xlsx
+++ b/proto_HTML.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AustinWen\Documents\GitHub\Project-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edgarmendez/GT/project2/Project-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C204C759-7A29-4C1F-9F97-5C2837075D56}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F06B02-9A42-324B-89BF-F15CF9312074}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5BBC919-664C-4CBE-8274-B8DAEE0F8917}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" xr2:uid="{C5BBC919-664C-4CBE-8274-B8DAEE0F8917}"/>
   </bookViews>
   <sheets>
     <sheet name="index.HTML" sheetId="1" r:id="rId1"/>
@@ -146,15 +146,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
+      <xdr:colOff>120650</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>475536</xdr:colOff>
+      <xdr:colOff>551736</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -183,8 +183,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="44450" y="6350"/>
-          <a:ext cx="8355886" cy="774700"/>
+          <a:off x="120650" y="19050"/>
+          <a:ext cx="9016286" cy="812800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -249,12 +249,9 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="2800"/>
-            <a:t>Sample</a:t>
+            <a:t>IMPACT MAP</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2800" baseline="0"/>
-            <a:t> Map</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="2800" baseline="0"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -322,6 +319,81 @@
             <a:rPr lang="en-US" sz="4400"/>
             <a:t>Intro</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF00999A-E861-A547-AD44-6543DDE612D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="190500" y="266700"/>
+          <a:ext cx="2425700" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>METEORITE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> LANDING SITES</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -948,85 +1020,85 @@
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="8.7265625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="1" hidden="1"/>
+    <col min="1" max="14" width="8.6640625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.6640625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.35"/>
-    <row r="2" x14ac:dyDescent="0.35"/>
-    <row r="3" x14ac:dyDescent="0.35"/>
-    <row r="4" x14ac:dyDescent="0.35"/>
-    <row r="5" x14ac:dyDescent="0.35"/>
-    <row r="6" x14ac:dyDescent="0.35"/>
-    <row r="7" x14ac:dyDescent="0.35"/>
-    <row r="8" x14ac:dyDescent="0.35"/>
-    <row r="9" x14ac:dyDescent="0.35"/>
-    <row r="10" x14ac:dyDescent="0.35"/>
-    <row r="11" x14ac:dyDescent="0.35"/>
-    <row r="12" x14ac:dyDescent="0.35"/>
-    <row r="13" x14ac:dyDescent="0.35"/>
-    <row r="14" x14ac:dyDescent="0.35"/>
-    <row r="15" x14ac:dyDescent="0.35"/>
-    <row r="16" x14ac:dyDescent="0.35"/>
-    <row r="17" x14ac:dyDescent="0.35"/>
-    <row r="18" x14ac:dyDescent="0.35"/>
-    <row r="19" x14ac:dyDescent="0.35"/>
-    <row r="20" x14ac:dyDescent="0.35"/>
-    <row r="21" x14ac:dyDescent="0.35"/>
-    <row r="22" x14ac:dyDescent="0.35"/>
-    <row r="23" x14ac:dyDescent="0.35"/>
-    <row r="24" x14ac:dyDescent="0.35"/>
-    <row r="25" x14ac:dyDescent="0.35"/>
-    <row r="26" x14ac:dyDescent="0.35"/>
-    <row r="27" x14ac:dyDescent="0.35"/>
-    <row r="28" x14ac:dyDescent="0.35"/>
-    <row r="29" x14ac:dyDescent="0.35"/>
-    <row r="30" x14ac:dyDescent="0.35"/>
-    <row r="31" x14ac:dyDescent="0.35"/>
-    <row r="32" x14ac:dyDescent="0.35"/>
-    <row r="33" x14ac:dyDescent="0.35"/>
-    <row r="34" x14ac:dyDescent="0.35"/>
-    <row r="35" x14ac:dyDescent="0.35"/>
-    <row r="36" x14ac:dyDescent="0.35"/>
-    <row r="37" x14ac:dyDescent="0.35"/>
-    <row r="38" x14ac:dyDescent="0.35"/>
-    <row r="39" x14ac:dyDescent="0.35"/>
-    <row r="40" x14ac:dyDescent="0.35"/>
-    <row r="41" x14ac:dyDescent="0.35"/>
-    <row r="42" x14ac:dyDescent="0.35"/>
-    <row r="43" x14ac:dyDescent="0.35"/>
-    <row r="44" x14ac:dyDescent="0.35"/>
-    <row r="45" x14ac:dyDescent="0.35"/>
-    <row r="46" x14ac:dyDescent="0.35"/>
-    <row r="47" x14ac:dyDescent="0.35"/>
-    <row r="48" x14ac:dyDescent="0.35"/>
-    <row r="49" x14ac:dyDescent="0.35"/>
-    <row r="50" x14ac:dyDescent="0.35"/>
-    <row r="51" x14ac:dyDescent="0.35"/>
-    <row r="52" x14ac:dyDescent="0.35"/>
-    <row r="53" x14ac:dyDescent="0.35"/>
-    <row r="54" x14ac:dyDescent="0.35"/>
-    <row r="55" x14ac:dyDescent="0.35"/>
-    <row r="56" x14ac:dyDescent="0.35"/>
-    <row r="57" x14ac:dyDescent="0.35"/>
-    <row r="58" x14ac:dyDescent="0.35"/>
-    <row r="59" x14ac:dyDescent="0.35"/>
-    <row r="60" x14ac:dyDescent="0.35"/>
-    <row r="61" x14ac:dyDescent="0.35"/>
-    <row r="62" x14ac:dyDescent="0.35"/>
-    <row r="63" x14ac:dyDescent="0.35"/>
-    <row r="64" x14ac:dyDescent="0.35"/>
-    <row r="65" x14ac:dyDescent="0.35"/>
-    <row r="66" x14ac:dyDescent="0.35"/>
-    <row r="67" x14ac:dyDescent="0.35"/>
-    <row r="68" x14ac:dyDescent="0.35"/>
-    <row r="69" x14ac:dyDescent="0.35"/>
-    <row r="70" x14ac:dyDescent="0.35"/>
+    <row r="1" x14ac:dyDescent="0.2"/>
+    <row r="2" x14ac:dyDescent="0.2"/>
+    <row r="3" x14ac:dyDescent="0.2"/>
+    <row r="4" x14ac:dyDescent="0.2"/>
+    <row r="5" x14ac:dyDescent="0.2"/>
+    <row r="6" x14ac:dyDescent="0.2"/>
+    <row r="7" x14ac:dyDescent="0.2"/>
+    <row r="8" x14ac:dyDescent="0.2"/>
+    <row r="9" x14ac:dyDescent="0.2"/>
+    <row r="10" x14ac:dyDescent="0.2"/>
+    <row r="11" x14ac:dyDescent="0.2"/>
+    <row r="12" x14ac:dyDescent="0.2"/>
+    <row r="13" x14ac:dyDescent="0.2"/>
+    <row r="14" x14ac:dyDescent="0.2"/>
+    <row r="15" x14ac:dyDescent="0.2"/>
+    <row r="16" x14ac:dyDescent="0.2"/>
+    <row r="17" x14ac:dyDescent="0.2"/>
+    <row r="18" x14ac:dyDescent="0.2"/>
+    <row r="19" x14ac:dyDescent="0.2"/>
+    <row r="20" x14ac:dyDescent="0.2"/>
+    <row r="21" x14ac:dyDescent="0.2"/>
+    <row r="22" x14ac:dyDescent="0.2"/>
+    <row r="23" x14ac:dyDescent="0.2"/>
+    <row r="24" x14ac:dyDescent="0.2"/>
+    <row r="25" x14ac:dyDescent="0.2"/>
+    <row r="26" x14ac:dyDescent="0.2"/>
+    <row r="27" x14ac:dyDescent="0.2"/>
+    <row r="28" x14ac:dyDescent="0.2"/>
+    <row r="29" x14ac:dyDescent="0.2"/>
+    <row r="30" x14ac:dyDescent="0.2"/>
+    <row r="31" x14ac:dyDescent="0.2"/>
+    <row r="32" x14ac:dyDescent="0.2"/>
+    <row r="33" x14ac:dyDescent="0.2"/>
+    <row r="34" x14ac:dyDescent="0.2"/>
+    <row r="35" x14ac:dyDescent="0.2"/>
+    <row r="36" x14ac:dyDescent="0.2"/>
+    <row r="37" x14ac:dyDescent="0.2"/>
+    <row r="38" x14ac:dyDescent="0.2"/>
+    <row r="39" x14ac:dyDescent="0.2"/>
+    <row r="40" x14ac:dyDescent="0.2"/>
+    <row r="41" x14ac:dyDescent="0.2"/>
+    <row r="42" x14ac:dyDescent="0.2"/>
+    <row r="43" x14ac:dyDescent="0.2"/>
+    <row r="44" x14ac:dyDescent="0.2"/>
+    <row r="45" x14ac:dyDescent="0.2"/>
+    <row r="46" x14ac:dyDescent="0.2"/>
+    <row r="47" x14ac:dyDescent="0.2"/>
+    <row r="48" x14ac:dyDescent="0.2"/>
+    <row r="49" x14ac:dyDescent="0.2"/>
+    <row r="50" x14ac:dyDescent="0.2"/>
+    <row r="51" x14ac:dyDescent="0.2"/>
+    <row r="52" x14ac:dyDescent="0.2"/>
+    <row r="53" x14ac:dyDescent="0.2"/>
+    <row r="54" x14ac:dyDescent="0.2"/>
+    <row r="55" x14ac:dyDescent="0.2"/>
+    <row r="56" x14ac:dyDescent="0.2"/>
+    <row r="57" x14ac:dyDescent="0.2"/>
+    <row r="58" x14ac:dyDescent="0.2"/>
+    <row r="59" x14ac:dyDescent="0.2"/>
+    <row r="60" x14ac:dyDescent="0.2"/>
+    <row r="61" x14ac:dyDescent="0.2"/>
+    <row r="62" x14ac:dyDescent="0.2"/>
+    <row r="63" x14ac:dyDescent="0.2"/>
+    <row r="64" x14ac:dyDescent="0.2"/>
+    <row r="65" x14ac:dyDescent="0.2"/>
+    <row r="66" x14ac:dyDescent="0.2"/>
+    <row r="67" x14ac:dyDescent="0.2"/>
+    <row r="68" x14ac:dyDescent="0.2"/>
+    <row r="69" x14ac:dyDescent="0.2"/>
+    <row r="70" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1041,7 +1113,7 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1056,9 +1128,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1074,7 +1146,7 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1089,7 +1161,7 @@
       <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1104,7 +1176,7 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1118,13 +1190,13 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1135,7 +1207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1143,37 +1215,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>8</v>
       </c>
